--- a/medicine/Sexualité et sexologie/Irina_Palm/Irina_Palm.xlsx
+++ b/medicine/Sexualité et sexologie/Irina_Palm/Irina_Palm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Irina Palm est un film réalisé par Sam Garbarski sorti en 2007, avec dans les rôles principaux Marianne Faithfull et Miki Manojlović. Le film est une coproduction entre cinq pays : Belgique, Luxembourg, Royaume-Uni, Allemagne et France. Sa première, au festival international du film de Berlin de 2007, a été largement saluée. La langue du tournage et de la version originale est l'anglais.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Maggie est une grand-mère dont le petit-fils Ollie va bientôt mourir d'une maladie rare si on ne l'envoie pas en Australie, à Melbourne, tenter un nouveau traitement. Mais ses parents et sa grand-mère, qui a déjà vendu sa maison pour payer ses soins, n'ont pas l'argent nécessaire. Maggie finit par échouer dans un sordide club de Londres, le Sexy World à Soho, où elle postule après avoir vu un panneau d'embauche d'« hôtesses », croyant qu'il s'agit de « servir le thé, débarrasser le bar ». Mais le patron du club, Miki, lui explique que « "hôtesse" est un euphémisme pour putain ». Le travail qu'il propose à Maggie stupéfaite consiste à masturber des hommes à travers un trou pratiqué dans une cloison (un glory hole).
 Maggie refuse d'abord, bien que Miki lui annonce un salaire possible de 600 livres par semaine, voire 800 si elle travaille beaucoup. Mais elle revient à contrecœur, et apprend les rudiments du métier avec Luisa, une jeune femme qui travaille déjà là. Toutes deux vont progressivement sympathiser, et autour d'un verre Maggie raconte qu'elle est veuve depuis sept ans, tandis que Luisa a quitté un mari qui la battait.
@@ -546,7 +560,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Irina Palm
 Réalisateur : Sam Garbarski
@@ -588,7 +604,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Marianne Faithfull : Maggie / Irina Palm
 Miki Manojlović : Miki
